--- a/Demo_files/schedule_fras_21.xlsx
+++ b/Demo_files/schedule_fras_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TechNo(D)\Projects\Face Recognition\FRAS\Demo_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D394145-9F19-463D-BFA0-4B7364CCCBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943086ED-584F-47B4-AFA4-7B44B6FD385B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>DEPARTMENT OF COMPUTER SCIENCE AND ENGINEERING</t>
   </si>
@@ -95,15 +95,6 @@
     <t>CS235</t>
   </si>
   <si>
-    <t>EE232(A)CS236(B)</t>
-  </si>
-  <si>
-    <t>EE232(B)CS235(A)</t>
-  </si>
-  <si>
-    <t>CS236(A)EC234(B)</t>
-  </si>
-  <si>
     <t>BS232</t>
   </si>
   <si>
@@ -111,15 +102,6 @@
   </si>
   <si>
     <t>EC234</t>
-  </si>
-  <si>
-    <t>CS235(B)EC234(A)</t>
-  </si>
-  <si>
-    <t>CS235(B)CS236(A)</t>
-  </si>
-  <si>
-    <t>CS235(A)CS236(B)</t>
   </si>
 </sst>
 </file>
@@ -284,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +307,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +539,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -648,7 +639,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
@@ -669,17 +660,15 @@
         <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="12"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="H8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -709,12 +698,12 @@
         <v>22</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="12"/>
       <c r="G10" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -724,22 +713,20 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="G11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="15">
@@ -751,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="13"/>
@@ -762,7 +749,7 @@
       <c r="I12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="G12:H12"/>
@@ -774,6 +761,8 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
